--- a/regionseng/5/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/5/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P14"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +526,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -562,7 +562,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="7"/>
       <c r="B3" s="9">
         <v>2006</v>
@@ -609,8 +609,14 @@
       <c r="P3" s="10">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="10">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -659,8 +665,14 @@
       <c r="P4" s="2">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -709,8 +721,14 @@
       <c r="P5" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -759,8 +777,14 @@
       <c r="P6" s="3">
         <v>1461</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="3">
+        <v>1653</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -809,8 +833,14 @@
       <c r="P7" s="3">
         <v>1397</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3">
+        <v>1533</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -859,8 +889,14 @@
       <c r="P8" s="2">
         <v>713.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="2">
+        <v>871</v>
+      </c>
+      <c r="R8" s="2">
+        <v>966.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
@@ -909,8 +945,14 @@
       <c r="P9" s="2">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
@@ -959,8 +1001,14 @@
       <c r="P10" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="R10" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -1009,8 +1057,14 @@
       <c r="P11" s="2">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R11" s="2">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
@@ -1059,8 +1113,14 @@
       <c r="P12" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R12" s="2">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1169,14 @@
       <c r="P13" s="2">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
@@ -1159,8 +1225,14 @@
       <c r="P14" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="14"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1177,7 +1249,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="15" t="s">
         <v>2</v>
       </c>

--- a/regionseng/5/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/5/hotels and restaurants/hotels and restaurants.xlsx
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +526,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -562,7 +562,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="7"/>
       <c r="B3" s="9">
         <v>2006</v>
@@ -615,8 +615,11 @@
       <c r="R3" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="R4" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -727,8 +733,11 @@
       <c r="R5" s="2">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="2">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -783,8 +792,11 @@
       <c r="R6" s="3">
         <v>1667</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="3">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -839,8 +851,11 @@
       <c r="R7" s="3">
         <v>1651</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="3">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -895,8 +910,11 @@
       <c r="R8" s="2">
         <v>966.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="2">
+        <v>1093.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
@@ -951,8 +969,11 @@
       <c r="R9" s="2">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="2">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1028,11 @@
       <c r="R10" s="2">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -1063,8 +1087,11 @@
       <c r="R11" s="2">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="2">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
@@ -1119,8 +1146,11 @@
       <c r="R12" s="2">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1205,11 @@
       <c r="R13" s="2">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="2">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
@@ -1231,8 +1264,11 @@
       <c r="R14" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="14"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1249,7 +1285,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
